--- a/TestData/Web_POS/Order/autoswitching_zwing_test_data.xlsx
+++ b/TestData/Web_POS/Order/autoswitching_zwing_test_data.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullPrecision="1" calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39" count="161">
   <si>
     <t>TC_Id</t>
   </si>
@@ -117,56 +120,134 @@
   <si>
     <t>TC_15</t>
   </si>
+  <si>
+    <t>useronep12</t>
+  </si>
+  <si>
+    <t>307260624JNG</t>
+  </si>
+  <si>
+    <t>i9_store_p12</t>
+  </si>
+  <si>
+    <t>userone_p12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+  <cellXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,19 +445,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63" customHeight="true" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col min="3" max="3" width="17.3203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,12 +498,12 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -428,7 +512,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -440,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -452,7 +536,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -490,7 +574,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -528,7 +612,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -566,7 +650,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -604,7 +688,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -642,7 +726,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -680,7 +764,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -718,7 +802,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -756,7 +840,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -794,7 +878,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -832,7 +916,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -870,7 +954,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -908,7 +992,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -946,7 +1030,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -984,7 +1068,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1002,7 +1086,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1020,7 +1104,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1038,7 +1122,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1056,7 +1140,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1074,7 +1158,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1092,7 +1176,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1110,7 +1194,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1128,7 +1212,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1146,7 +1230,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1164,7 +1248,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1182,7 +1266,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1200,7 +1284,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1218,7 +1302,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1236,7 +1320,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1254,7 +1338,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1272,7 +1356,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1290,7 +1374,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1308,7 +1392,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1326,7 +1410,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:16">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1344,7 +1428,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1362,7 +1446,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1380,7 +1464,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1398,7 +1482,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1416,7 +1500,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1434,7 +1518,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1452,7 +1536,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1470,7 +1554,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1488,7 +1572,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1506,7 +1590,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1524,7 +1608,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1542,7 +1626,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1560,7 +1644,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1578,7 +1662,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1596,7 +1680,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1614,7 +1698,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:16">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1632,7 +1716,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1650,7 +1734,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1668,7 +1752,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1686,7 +1770,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1704,7 +1788,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1722,7 +1806,7 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1740,7 +1824,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1758,7 +1842,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1776,7 +1860,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:16">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1794,7 +1878,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1812,7 +1896,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:16">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1830,7 +1914,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1848,7 +1932,7 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1866,7 +1950,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1884,7 +1968,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:16">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1902,7 +1986,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:16">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1920,7 +2004,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:16">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1938,7 +2022,7 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:16">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1956,7 +2040,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:16">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1974,7 +2058,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:16">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1992,7 +2076,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:16">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2010,7 +2094,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:16">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2028,7 +2112,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:16">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2046,7 +2130,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:16">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2064,7 +2148,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:16">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2082,7 +2166,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:16">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2100,7 +2184,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:16">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2118,7 +2202,7 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:16">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2136,7 +2220,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:16">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2154,7 +2238,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:16">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2172,7 +2256,7 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:16">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2190,7 +2274,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:16">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2208,7 +2292,7 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:16">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2226,7 +2310,7 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:16">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2244,7 +2328,7 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:16">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2262,7 +2346,7 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:16">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2280,7 +2364,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:16">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2298,7 +2382,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:16">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2316,7 +2400,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:16">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2334,7 +2418,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:16">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2352,7 +2436,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:16">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2370,7 +2454,7 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:16">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2388,7 +2472,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:16">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2406,7 +2490,7 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:16">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2424,7 +2508,7 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:16">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2442,7 +2526,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:16">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2460,7 +2544,7 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:16">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2478,7 +2562,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:16">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2496,7 +2580,7 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:16">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2514,7 +2598,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:16">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2532,7 +2616,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:16">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2550,7 +2634,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:16">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2568,7 +2652,7 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:16">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2586,7 +2670,7 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:16">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2604,7 +2688,7 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:16">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2622,7 +2706,7 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:16">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2640,7 +2724,7 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:16">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2658,7 +2742,7 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:16">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2676,7 +2760,7 @@
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:16">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2694,7 +2778,7 @@
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:16">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2712,7 +2796,7 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:16">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2730,7 +2814,7 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:16">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2748,7 +2832,7 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:16">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2766,7 +2850,7 @@
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:16">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2784,7 +2868,7 @@
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:16">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2802,7 +2886,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:16">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2820,7 +2904,7 @@
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:16">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2838,7 +2922,7 @@
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:16">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2856,7 +2940,7 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:16">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2874,7 +2958,7 @@
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:16">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2892,7 +2976,7 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:16">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2910,7 +2994,7 @@
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:16">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2928,7 +3012,7 @@
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:16">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2946,7 +3030,7 @@
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:16">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2964,7 +3048,7 @@
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:16">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2982,7 +3066,7 @@
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:16">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3000,7 +3084,7 @@
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:16">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3018,7 +3102,7 @@
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:16">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3036,7 +3120,7 @@
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:16">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3054,7 +3138,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:16">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3072,7 +3156,7 @@
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:16">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3090,7 +3174,7 @@
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:16">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3108,7 +3192,7 @@
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:16">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3126,7 +3210,7 @@
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:16">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3144,7 +3228,7 @@
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:16">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3162,7 +3246,7 @@
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:16">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3180,7 +3264,7 @@
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:16">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3198,7 +3282,7 @@
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:16">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3216,7 +3300,7 @@
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:16">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3234,7 +3318,7 @@
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:16">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3252,7 +3336,7 @@
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:16">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3270,7 +3354,7 @@
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:16">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3288,7 +3372,7 @@
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:16">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3306,7 +3390,7 @@
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:16">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3324,7 +3408,7 @@
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:16">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3342,7 +3426,7 @@
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:16">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3360,7 +3444,7 @@
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:16">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3378,7 +3462,7 @@
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:16">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3396,7 +3480,7 @@
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:16">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3414,7 +3498,7 @@
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:16">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3432,7 +3516,7 @@
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:16">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3450,7 +3534,7 @@
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:16">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3468,7 +3552,7 @@
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:16">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3486,7 +3570,7 @@
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:16">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3504,7 +3588,7 @@
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:16">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3522,7 +3606,7 @@
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:16">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3540,7 +3624,7 @@
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:16">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3558,7 +3642,7 @@
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:16">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3576,7 +3660,7 @@
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:16">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3594,7 +3678,7 @@
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:16">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3612,7 +3696,7 @@
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:16">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3630,7 +3714,7 @@
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:16">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3648,7 +3732,7 @@
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:16">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3666,7 +3750,7 @@
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:16">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3684,7 +3768,7 @@
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:16">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3702,7 +3786,7 @@
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:16">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3720,7 +3804,7 @@
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:16">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3738,7 +3822,7 @@
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:16">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3756,7 +3840,7 @@
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:16">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3774,7 +3858,7 @@
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:16">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3792,7 +3876,7 @@
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:16">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3810,7 +3894,7 @@
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:16">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3828,7 +3912,7 @@
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:16">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3846,7 +3930,7 @@
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:16">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3864,7 +3948,7 @@
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:16">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3882,7 +3966,7 @@
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:16">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3900,7 +3984,7 @@
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:16">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3918,7 +4002,7 @@
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:16">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3936,7 +4020,7 @@
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:16">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3954,7 +4038,7 @@
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:16">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3972,7 +4056,7 @@
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:16">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3990,7 +4074,7 @@
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:16">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4008,7 +4092,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:16">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4026,7 +4110,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:16">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4044,7 +4128,7 @@
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:16">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4062,7 +4146,7 @@
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:16">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4080,7 +4164,7 @@
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:16">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4098,7 +4182,7 @@
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:16">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4116,7 +4200,7 @@
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:16">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4134,7 +4218,7 @@
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:16">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4152,7 +4236,7 @@
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:16">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4170,7 +4254,7 @@
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:16">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4188,7 +4272,7 @@
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:16">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4206,7 +4290,7 @@
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:16">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4224,7 +4308,7 @@
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:16">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4242,7 +4326,7 @@
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:16">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4260,7 +4344,7 @@
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:16">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4278,7 +4362,7 @@
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:16">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4296,7 +4380,7 @@
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:16">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4314,7 +4398,7 @@
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:16">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4332,7 +4416,7 @@
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:16">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4350,7 +4434,7 @@
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:16">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4368,7 +4452,7 @@
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:16">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -4386,7 +4470,7 @@
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:16">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -4404,7 +4488,7 @@
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:16">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -4422,7 +4506,7 @@
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:16">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4440,7 +4524,7 @@
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:16">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -4458,7 +4542,7 @@
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:16">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -4476,7 +4560,7 @@
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:16">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -4494,7 +4578,7 @@
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:16">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -4512,7 +4596,7 @@
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:16">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -4530,7 +4614,7 @@
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:16">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -4548,7 +4632,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:16">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -4566,7 +4650,7 @@
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:16">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -4584,7 +4668,7 @@
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:16">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -4602,7 +4686,7 @@
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:16">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -4620,7 +4704,7 @@
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:16">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -4638,7 +4722,7 @@
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:16">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -4656,7 +4740,7 @@
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:16">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -4674,7 +4758,7 @@
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:16">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -4692,7 +4776,7 @@
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:16">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -4710,7 +4794,7 @@
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:16">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -4728,7 +4812,7 @@
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:16">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -4746,7 +4830,7 @@
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:16">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -4764,7 +4848,7 @@
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:16">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -4782,7 +4866,7 @@
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:16">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -4800,7 +4884,7 @@
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:16">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4818,7 +4902,7 @@
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:16">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -4836,7 +4920,7 @@
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:16">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4854,7 +4938,7 @@
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:16">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -4872,7 +4956,7 @@
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:16">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -4890,7 +4974,7 @@
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:16">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -4908,7 +4992,7 @@
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:16">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -4926,7 +5010,7 @@
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:16">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -4944,7 +5028,7 @@
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:16">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -4962,7 +5046,7 @@
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:16">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -4980,7 +5064,7 @@
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:16">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -4998,7 +5082,7 @@
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:16">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -5016,7 +5100,7 @@
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:16">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -5034,7 +5118,7 @@
       <c r="O241" s="2"/>
       <c r="P241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:16">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -5052,7 +5136,7 @@
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:16">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -5070,7 +5154,7 @@
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:16">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -5088,7 +5172,7 @@
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:16">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -5106,7 +5190,7 @@
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:16">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -5124,7 +5208,7 @@
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:16">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -5142,7 +5226,7 @@
       <c r="O247" s="2"/>
       <c r="P247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:16">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -5160,7 +5244,7 @@
       <c r="O248" s="2"/>
       <c r="P248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:16">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -5178,7 +5262,7 @@
       <c r="O249" s="2"/>
       <c r="P249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:16">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -5196,7 +5280,7 @@
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:16">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -5214,7 +5298,7 @@
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:16">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -5232,7 +5316,7 @@
       <c r="O252" s="2"/>
       <c r="P252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:16">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -5250,7 +5334,7 @@
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:16">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -5268,7 +5352,7 @@
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:16">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -5286,7 +5370,7 @@
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:16">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -5304,7 +5388,7 @@
       <c r="O256" s="2"/>
       <c r="P256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:16">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -5322,7 +5406,7 @@
       <c r="O257" s="2"/>
       <c r="P257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:16">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -5340,7 +5424,7 @@
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:16">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -5358,7 +5442,7 @@
       <c r="O259" s="2"/>
       <c r="P259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:16">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -5376,7 +5460,7 @@
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:16">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -5394,7 +5478,7 @@
       <c r="O261" s="2"/>
       <c r="P261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:16">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -5412,7 +5496,7 @@
       <c r="O262" s="2"/>
       <c r="P262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:16">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -5430,7 +5514,7 @@
       <c r="O263" s="2"/>
       <c r="P263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:16">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -5448,7 +5532,7 @@
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:16">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -5466,7 +5550,7 @@
       <c r="O265" s="2"/>
       <c r="P265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:16">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -5484,7 +5568,7 @@
       <c r="O266" s="2"/>
       <c r="P266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:16">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -5502,7 +5586,7 @@
       <c r="O267" s="2"/>
       <c r="P267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:16">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -5520,7 +5604,7 @@
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:16">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -5538,7 +5622,7 @@
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:16">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -5556,7 +5640,7 @@
       <c r="O270" s="2"/>
       <c r="P270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:16">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -5574,7 +5658,7 @@
       <c r="O271" s="2"/>
       <c r="P271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:16">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -5592,7 +5676,7 @@
       <c r="O272" s="2"/>
       <c r="P272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:16">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -5610,7 +5694,7 @@
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:16">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -5628,7 +5712,7 @@
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:16">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -5646,7 +5730,7 @@
       <c r="O275" s="2"/>
       <c r="P275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:16">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -5664,7 +5748,7 @@
       <c r="O276" s="2"/>
       <c r="P276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:16">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -5682,7 +5766,7 @@
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:16">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -5700,7 +5784,7 @@
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:16">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -5718,7 +5802,7 @@
       <c r="O279" s="2"/>
       <c r="P279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:16">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -5736,7 +5820,7 @@
       <c r="O280" s="2"/>
       <c r="P280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:16">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -5754,7 +5838,7 @@
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:16">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -5772,7 +5856,7 @@
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:16">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -5790,7 +5874,7 @@
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:16">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -5808,7 +5892,7 @@
       <c r="O284" s="2"/>
       <c r="P284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:16">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -5826,7 +5910,7 @@
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:16">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -5844,7 +5928,7 @@
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:16">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -5862,7 +5946,7 @@
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:16">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -5880,7 +5964,7 @@
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:16">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -5898,7 +5982,7 @@
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:16">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -5916,7 +6000,7 @@
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:16">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -5934,7 +6018,7 @@
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:16">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -5952,7 +6036,7 @@
       <c r="O292" s="2"/>
       <c r="P292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:16">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -5970,7 +6054,7 @@
       <c r="O293" s="2"/>
       <c r="P293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:16">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -5988,7 +6072,7 @@
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:16">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -6006,7 +6090,7 @@
       <c r="O295" s="2"/>
       <c r="P295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:16">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -6024,7 +6108,7 @@
       <c r="O296" s="2"/>
       <c r="P296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:16">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -6042,7 +6126,7 @@
       <c r="O297" s="2"/>
       <c r="P297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:16">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -6060,7 +6144,7 @@
       <c r="O298" s="2"/>
       <c r="P298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:16">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -6078,7 +6162,7 @@
       <c r="O299" s="2"/>
       <c r="P299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:16">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -6096,7 +6180,7 @@
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:16">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -6114,7 +6198,7 @@
       <c r="O301" s="2"/>
       <c r="P301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:16">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -6132,7 +6216,7 @@
       <c r="O302" s="2"/>
       <c r="P302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:16">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -6150,7 +6234,7 @@
       <c r="O303" s="2"/>
       <c r="P303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:16">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -6168,7 +6252,7 @@
       <c r="O304" s="2"/>
       <c r="P304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:16">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -6186,7 +6270,7 @@
       <c r="O305" s="2"/>
       <c r="P305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:16">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -6204,7 +6288,7 @@
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:16">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -6222,7 +6306,7 @@
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:16">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -6240,7 +6324,7 @@
       <c r="O308" s="2"/>
       <c r="P308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:16">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -6258,7 +6342,7 @@
       <c r="O309" s="2"/>
       <c r="P309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:16">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -6276,7 +6360,7 @@
       <c r="O310" s="2"/>
       <c r="P310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:16">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -6294,7 +6378,7 @@
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:16">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -6312,7 +6396,7 @@
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:16">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -6330,7 +6414,7 @@
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:16">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -6348,7 +6432,7 @@
       <c r="O314" s="2"/>
       <c r="P314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:16">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -6366,7 +6450,7 @@
       <c r="O315" s="2"/>
       <c r="P315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:16">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -6384,7 +6468,7 @@
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:16">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -6402,7 +6486,7 @@
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:16">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -6420,7 +6504,7 @@
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:16">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -6438,7 +6522,7 @@
       <c r="O319" s="2"/>
       <c r="P319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:16">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -6456,7 +6540,7 @@
       <c r="O320" s="2"/>
       <c r="P320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:16">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -6474,7 +6558,7 @@
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:16">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -6492,7 +6576,7 @@
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:16">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -6510,7 +6594,7 @@
       <c r="O323" s="2"/>
       <c r="P323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:16">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -6528,7 +6612,7 @@
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:16">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -6546,7 +6630,7 @@
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:16">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -6564,7 +6648,7 @@
       <c r="O326" s="2"/>
       <c r="P326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:16">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -6582,7 +6666,7 @@
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:16">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -6600,7 +6684,7 @@
       <c r="O328" s="2"/>
       <c r="P328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:16">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -6618,7 +6702,7 @@
       <c r="O329" s="2"/>
       <c r="P329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:16">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -6636,7 +6720,7 @@
       <c r="O330" s="2"/>
       <c r="P330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:16">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -6654,7 +6738,7 @@
       <c r="O331" s="2"/>
       <c r="P331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:16">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -6672,7 +6756,7 @@
       <c r="O332" s="2"/>
       <c r="P332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:16">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -6690,7 +6774,7 @@
       <c r="O333" s="2"/>
       <c r="P333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:16">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -6708,7 +6792,7 @@
       <c r="O334" s="2"/>
       <c r="P334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:16">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -6726,7 +6810,7 @@
       <c r="O335" s="2"/>
       <c r="P335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:16">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -6744,7 +6828,7 @@
       <c r="O336" s="2"/>
       <c r="P336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:16">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -6762,7 +6846,7 @@
       <c r="O337" s="2"/>
       <c r="P337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:16">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -6780,7 +6864,7 @@
       <c r="O338" s="2"/>
       <c r="P338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:16">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -6798,7 +6882,7 @@
       <c r="O339" s="2"/>
       <c r="P339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:16">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -6816,7 +6900,7 @@
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:16">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -6834,7 +6918,7 @@
       <c r="O341" s="2"/>
       <c r="P341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:16">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -6852,7 +6936,7 @@
       <c r="O342" s="2"/>
       <c r="P342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:16">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -6870,7 +6954,7 @@
       <c r="O343" s="2"/>
       <c r="P343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:16">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -6888,7 +6972,7 @@
       <c r="O344" s="2"/>
       <c r="P344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:16">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -6906,7 +6990,7 @@
       <c r="O345" s="2"/>
       <c r="P345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:16">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -6924,7 +7008,7 @@
       <c r="O346" s="2"/>
       <c r="P346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:16">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -6942,7 +7026,7 @@
       <c r="O347" s="2"/>
       <c r="P347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:16">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -6960,7 +7044,7 @@
       <c r="O348" s="2"/>
       <c r="P348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:16">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -6978,7 +7062,7 @@
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:16">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -6996,7 +7080,7 @@
       <c r="O350" s="2"/>
       <c r="P350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:16">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -7014,7 +7098,7 @@
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:16">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -7032,7 +7116,7 @@
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:16">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -7050,7 +7134,7 @@
       <c r="O353" s="2"/>
       <c r="P353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:16">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -7068,7 +7152,7 @@
       <c r="O354" s="2"/>
       <c r="P354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:16">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -7086,7 +7170,7 @@
       <c r="O355" s="2"/>
       <c r="P355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:16">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -7104,7 +7188,7 @@
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:16">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -7122,7 +7206,7 @@
       <c r="O357" s="2"/>
       <c r="P357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:16">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -7140,7 +7224,7 @@
       <c r="O358" s="2"/>
       <c r="P358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:16">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -7158,7 +7242,7 @@
       <c r="O359" s="2"/>
       <c r="P359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:16">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -7176,7 +7260,7 @@
       <c r="O360" s="2"/>
       <c r="P360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:16">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -7194,7 +7278,7 @@
       <c r="O361" s="2"/>
       <c r="P361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:16">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -7212,7 +7296,7 @@
       <c r="O362" s="2"/>
       <c r="P362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:16">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -7230,7 +7314,7 @@
       <c r="O363" s="2"/>
       <c r="P363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:16">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -7248,7 +7332,7 @@
       <c r="O364" s="2"/>
       <c r="P364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:16">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -7266,7 +7350,7 @@
       <c r="O365" s="2"/>
       <c r="P365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:16">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -7284,7 +7368,7 @@
       <c r="O366" s="2"/>
       <c r="P366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:16">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -7302,7 +7386,7 @@
       <c r="O367" s="2"/>
       <c r="P367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:16">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -7320,7 +7404,7 @@
       <c r="O368" s="2"/>
       <c r="P368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:16">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -7338,7 +7422,7 @@
       <c r="O369" s="2"/>
       <c r="P369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:16">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -7356,7 +7440,7 @@
       <c r="O370" s="2"/>
       <c r="P370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:16">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -7374,7 +7458,7 @@
       <c r="O371" s="2"/>
       <c r="P371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:16">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -7392,7 +7476,7 @@
       <c r="O372" s="2"/>
       <c r="P372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:16">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -7410,7 +7494,7 @@
       <c r="O373" s="2"/>
       <c r="P373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:16">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -7428,7 +7512,7 @@
       <c r="O374" s="2"/>
       <c r="P374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:16">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -7446,7 +7530,7 @@
       <c r="O375" s="2"/>
       <c r="P375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:16">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -7464,7 +7548,7 @@
       <c r="O376" s="2"/>
       <c r="P376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:16">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -7482,7 +7566,7 @@
       <c r="O377" s="2"/>
       <c r="P377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:16">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -7500,7 +7584,7 @@
       <c r="O378" s="2"/>
       <c r="P378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:16">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -7518,7 +7602,7 @@
       <c r="O379" s="2"/>
       <c r="P379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:16">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -7536,7 +7620,7 @@
       <c r="O380" s="2"/>
       <c r="P380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:16">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -7554,7 +7638,7 @@
       <c r="O381" s="2"/>
       <c r="P381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:16">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -7572,7 +7656,7 @@
       <c r="O382" s="2"/>
       <c r="P382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:16">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -7590,7 +7674,7 @@
       <c r="O383" s="2"/>
       <c r="P383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:16">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -7608,7 +7692,7 @@
       <c r="O384" s="2"/>
       <c r="P384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:16">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -7626,7 +7710,7 @@
       <c r="O385" s="2"/>
       <c r="P385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:16">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -7644,7 +7728,7 @@
       <c r="O386" s="2"/>
       <c r="P386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:16">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -7662,7 +7746,7 @@
       <c r="O387" s="2"/>
       <c r="P387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:16">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -7680,7 +7764,7 @@
       <c r="O388" s="2"/>
       <c r="P388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:16">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -7698,7 +7782,7 @@
       <c r="O389" s="2"/>
       <c r="P389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:16">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -7716,7 +7800,7 @@
       <c r="O390" s="2"/>
       <c r="P390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:16">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -7734,7 +7818,7 @@
       <c r="O391" s="2"/>
       <c r="P391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:16">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -7752,7 +7836,7 @@
       <c r="O392" s="2"/>
       <c r="P392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:16">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -7770,7 +7854,7 @@
       <c r="O393" s="2"/>
       <c r="P393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:16">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -7788,7 +7872,7 @@
       <c r="O394" s="2"/>
       <c r="P394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:16">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -7806,7 +7890,7 @@
       <c r="O395" s="2"/>
       <c r="P395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:16">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -7824,7 +7908,7 @@
       <c r="O396" s="2"/>
       <c r="P396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:16">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -7842,7 +7926,7 @@
       <c r="O397" s="2"/>
       <c r="P397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:16">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -7860,7 +7944,7 @@
       <c r="O398" s="2"/>
       <c r="P398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:16">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -7878,7 +7962,7 @@
       <c r="O399" s="2"/>
       <c r="P399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:16">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -7896,7 +7980,7 @@
       <c r="O400" s="2"/>
       <c r="P400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:16">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -7914,7 +7998,7 @@
       <c r="O401" s="2"/>
       <c r="P401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:16">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -7932,7 +8016,7 @@
       <c r="O402" s="2"/>
       <c r="P402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:16">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -7950,7 +8034,7 @@
       <c r="O403" s="2"/>
       <c r="P403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:16">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -7968,7 +8052,7 @@
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:16">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -7986,7 +8070,7 @@
       <c r="O405" s="2"/>
       <c r="P405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:16">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -8004,7 +8088,7 @@
       <c r="O406" s="2"/>
       <c r="P406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:16">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -8022,7 +8106,7 @@
       <c r="O407" s="2"/>
       <c r="P407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:16">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -8040,7 +8124,7 @@
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:16">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -8058,7 +8142,7 @@
       <c r="O409" s="2"/>
       <c r="P409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:16">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -8076,7 +8160,7 @@
       <c r="O410" s="2"/>
       <c r="P410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:16">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -8094,7 +8178,7 @@
       <c r="O411" s="2"/>
       <c r="P411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:16">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -8112,7 +8196,7 @@
       <c r="O412" s="2"/>
       <c r="P412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:16">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -8130,7 +8214,7 @@
       <c r="O413" s="2"/>
       <c r="P413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:16">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -8148,7 +8232,7 @@
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:16">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -8166,7 +8250,7 @@
       <c r="O415" s="2"/>
       <c r="P415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:16">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -8184,7 +8268,7 @@
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:16">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -8202,7 +8286,7 @@
       <c r="O417" s="2"/>
       <c r="P417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:16">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -8220,7 +8304,7 @@
       <c r="O418" s="2"/>
       <c r="P418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:16">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -8238,7 +8322,7 @@
       <c r="O419" s="2"/>
       <c r="P419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:16">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -8256,7 +8340,7 @@
       <c r="O420" s="2"/>
       <c r="P420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:16">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -8274,7 +8358,7 @@
       <c r="O421" s="2"/>
       <c r="P421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:16">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -8292,7 +8376,7 @@
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:16">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -8310,7 +8394,7 @@
       <c r="O423" s="2"/>
       <c r="P423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:16">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -8328,7 +8412,7 @@
       <c r="O424" s="2"/>
       <c r="P424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:16">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -8346,7 +8430,7 @@
       <c r="O425" s="2"/>
       <c r="P425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:16">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -8364,7 +8448,7 @@
       <c r="O426" s="2"/>
       <c r="P426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:16">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -8382,7 +8466,7 @@
       <c r="O427" s="2"/>
       <c r="P427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:16">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -8400,7 +8484,7 @@
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:16">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -8418,7 +8502,7 @@
       <c r="O429" s="2"/>
       <c r="P429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:16">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -8436,7 +8520,7 @@
       <c r="O430" s="2"/>
       <c r="P430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:16">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -8454,7 +8538,7 @@
       <c r="O431" s="2"/>
       <c r="P431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:16">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -8472,7 +8556,7 @@
       <c r="O432" s="2"/>
       <c r="P432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:16">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -8490,7 +8574,7 @@
       <c r="O433" s="2"/>
       <c r="P433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:16">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -8508,7 +8592,7 @@
       <c r="O434" s="2"/>
       <c r="P434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:16">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -8526,7 +8610,7 @@
       <c r="O435" s="2"/>
       <c r="P435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:16">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -8544,7 +8628,7 @@
       <c r="O436" s="2"/>
       <c r="P436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:16">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -8562,7 +8646,7 @@
       <c r="O437" s="2"/>
       <c r="P437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:16">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -8580,7 +8664,7 @@
       <c r="O438" s="2"/>
       <c r="P438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:16">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -8598,7 +8682,7 @@
       <c r="O439" s="2"/>
       <c r="P439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:16">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -8616,7 +8700,7 @@
       <c r="O440" s="2"/>
       <c r="P440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:16">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -8634,7 +8718,7 @@
       <c r="O441" s="2"/>
       <c r="P441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:16">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -8652,7 +8736,7 @@
       <c r="O442" s="2"/>
       <c r="P442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:16">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -8670,7 +8754,7 @@
       <c r="O443" s="2"/>
       <c r="P443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:16">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -8688,7 +8772,7 @@
       <c r="O444" s="2"/>
       <c r="P444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:16">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -8706,7 +8790,7 @@
       <c r="O445" s="2"/>
       <c r="P445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:16">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -8724,7 +8808,7 @@
       <c r="O446" s="2"/>
       <c r="P446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:16">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -8742,7 +8826,7 @@
       <c r="O447" s="2"/>
       <c r="P447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:16">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -8760,7 +8844,7 @@
       <c r="O448" s="2"/>
       <c r="P448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:16">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -8778,7 +8862,7 @@
       <c r="O449" s="2"/>
       <c r="P449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:16">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -8796,7 +8880,7 @@
       <c r="O450" s="2"/>
       <c r="P450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:16">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -8814,7 +8898,7 @@
       <c r="O451" s="2"/>
       <c r="P451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:16">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -8832,7 +8916,7 @@
       <c r="O452" s="2"/>
       <c r="P452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:16">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -8850,7 +8934,7 @@
       <c r="O453" s="2"/>
       <c r="P453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:16">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -8868,7 +8952,7 @@
       <c r="O454" s="2"/>
       <c r="P454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:16">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -8886,7 +8970,7 @@
       <c r="O455" s="2"/>
       <c r="P455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:16">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -8904,7 +8988,7 @@
       <c r="O456" s="2"/>
       <c r="P456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:16">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -8922,7 +9006,7 @@
       <c r="O457" s="2"/>
       <c r="P457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:16">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -8940,7 +9024,7 @@
       <c r="O458" s="2"/>
       <c r="P458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:16">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -8958,7 +9042,7 @@
       <c r="O459" s="2"/>
       <c r="P459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:16">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -8976,7 +9060,7 @@
       <c r="O460" s="2"/>
       <c r="P460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:16">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -8994,7 +9078,7 @@
       <c r="O461" s="2"/>
       <c r="P461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:16">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -9012,7 +9096,7 @@
       <c r="O462" s="2"/>
       <c r="P462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:16">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -9030,7 +9114,7 @@
       <c r="O463" s="2"/>
       <c r="P463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:16">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -9048,7 +9132,7 @@
       <c r="O464" s="2"/>
       <c r="P464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:16">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -9066,7 +9150,7 @@
       <c r="O465" s="2"/>
       <c r="P465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:16">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -9084,7 +9168,7 @@
       <c r="O466" s="2"/>
       <c r="P466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:16">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -9102,7 +9186,7 @@
       <c r="O467" s="2"/>
       <c r="P467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:16">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -9120,7 +9204,7 @@
       <c r="O468" s="2"/>
       <c r="P468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:16">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -9138,7 +9222,7 @@
       <c r="O469" s="2"/>
       <c r="P469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:16">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -9156,7 +9240,7 @@
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:16">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -9174,7 +9258,7 @@
       <c r="O471" s="2"/>
       <c r="P471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:16">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -9192,7 +9276,7 @@
       <c r="O472" s="2"/>
       <c r="P472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:16">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -9210,7 +9294,7 @@
       <c r="O473" s="2"/>
       <c r="P473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:16">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -9228,7 +9312,7 @@
       <c r="O474" s="2"/>
       <c r="P474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:16">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -9246,7 +9330,7 @@
       <c r="O475" s="2"/>
       <c r="P475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:16">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -9264,7 +9348,7 @@
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:16">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -9282,7 +9366,7 @@
       <c r="O477" s="2"/>
       <c r="P477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:16">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -9300,7 +9384,7 @@
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:16">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -9318,7 +9402,7 @@
       <c r="O479" s="2"/>
       <c r="P479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:16">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -9336,7 +9420,7 @@
       <c r="O480" s="2"/>
       <c r="P480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:16">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -9354,7 +9438,7 @@
       <c r="O481" s="2"/>
       <c r="P481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:16">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -9372,7 +9456,7 @@
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:16">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -9390,7 +9474,7 @@
       <c r="O483" s="2"/>
       <c r="P483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:16">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -9408,7 +9492,7 @@
       <c r="O484" s="2"/>
       <c r="P484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:16">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -9426,7 +9510,7 @@
       <c r="O485" s="2"/>
       <c r="P485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:16">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -9444,7 +9528,7 @@
       <c r="O486" s="2"/>
       <c r="P486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:16">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -9462,7 +9546,7 @@
       <c r="O487" s="2"/>
       <c r="P487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:16">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -9480,7 +9564,7 @@
       <c r="O488" s="2"/>
       <c r="P488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:16">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -9498,7 +9582,7 @@
       <c r="O489" s="2"/>
       <c r="P489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:16">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -9516,7 +9600,7 @@
       <c r="O490" s="2"/>
       <c r="P490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:16">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -9534,7 +9618,7 @@
       <c r="O491" s="2"/>
       <c r="P491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:16">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -9552,7 +9636,7 @@
       <c r="O492" s="2"/>
       <c r="P492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:16">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -9570,7 +9654,7 @@
       <c r="O493" s="2"/>
       <c r="P493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:16">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -9588,7 +9672,7 @@
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:16">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -9606,7 +9690,7 @@
       <c r="O495" s="2"/>
       <c r="P495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:16">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -9624,7 +9708,7 @@
       <c r="O496" s="2"/>
       <c r="P496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:16">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -9642,7 +9726,7 @@
       <c r="O497" s="2"/>
       <c r="P497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:16">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -9660,7 +9744,7 @@
       <c r="O498" s="2"/>
       <c r="P498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:16">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -9678,7 +9762,7 @@
       <c r="O499" s="2"/>
       <c r="P499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:16">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -9696,7 +9780,7 @@
       <c r="O500" s="2"/>
       <c r="P500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:16">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -9714,7 +9798,7 @@
       <c r="O501" s="2"/>
       <c r="P501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:16">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -9732,7 +9816,7 @@
       <c r="O502" s="2"/>
       <c r="P502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:16">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -9750,7 +9834,7 @@
       <c r="O503" s="2"/>
       <c r="P503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:16">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -9768,7 +9852,7 @@
       <c r="O504" s="2"/>
       <c r="P504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:16">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -9786,7 +9870,7 @@
       <c r="O505" s="2"/>
       <c r="P505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:16">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -9804,7 +9888,7 @@
       <c r="O506" s="2"/>
       <c r="P506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:16">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -9822,7 +9906,7 @@
       <c r="O507" s="2"/>
       <c r="P507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:16">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -9840,7 +9924,7 @@
       <c r="O508" s="2"/>
       <c r="P508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:16">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -9858,7 +9942,7 @@
       <c r="O509" s="2"/>
       <c r="P509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:16">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -9876,7 +9960,7 @@
       <c r="O510" s="2"/>
       <c r="P510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:16">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -9894,7 +9978,7 @@
       <c r="O511" s="2"/>
       <c r="P511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:16">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -9912,7 +9996,7 @@
       <c r="O512" s="2"/>
       <c r="P512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:16">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -9930,7 +10014,7 @@
       <c r="O513" s="2"/>
       <c r="P513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:16">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -9948,7 +10032,7 @@
       <c r="O514" s="2"/>
       <c r="P514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:16">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -9966,7 +10050,7 @@
       <c r="O515" s="2"/>
       <c r="P515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:16">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -9984,7 +10068,7 @@
       <c r="O516" s="2"/>
       <c r="P516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:16">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -10002,7 +10086,7 @@
       <c r="O517" s="2"/>
       <c r="P517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:16">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -10020,7 +10104,7 @@
       <c r="O518" s="2"/>
       <c r="P518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:16">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -10038,7 +10122,7 @@
       <c r="O519" s="2"/>
       <c r="P519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:16">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -10056,7 +10140,7 @@
       <c r="O520" s="2"/>
       <c r="P520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:16">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -10074,7 +10158,7 @@
       <c r="O521" s="2"/>
       <c r="P521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:16">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -10092,7 +10176,7 @@
       <c r="O522" s="2"/>
       <c r="P522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:16">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -10110,7 +10194,7 @@
       <c r="O523" s="2"/>
       <c r="P523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:16">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -10128,7 +10212,7 @@
       <c r="O524" s="2"/>
       <c r="P524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:16">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -10146,7 +10230,7 @@
       <c r="O525" s="2"/>
       <c r="P525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:16">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -10164,7 +10248,7 @@
       <c r="O526" s="2"/>
       <c r="P526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:16">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -10182,7 +10266,7 @@
       <c r="O527" s="2"/>
       <c r="P527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:16">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -10200,7 +10284,7 @@
       <c r="O528" s="2"/>
       <c r="P528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:16">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -10218,7 +10302,7 @@
       <c r="O529" s="2"/>
       <c r="P529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:16">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -10236,7 +10320,7 @@
       <c r="O530" s="2"/>
       <c r="P530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:16">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -10254,7 +10338,7 @@
       <c r="O531" s="2"/>
       <c r="P531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:16">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -10272,7 +10356,7 @@
       <c r="O532" s="2"/>
       <c r="P532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:16">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -10290,7 +10374,7 @@
       <c r="O533" s="2"/>
       <c r="P533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:16">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -10308,7 +10392,7 @@
       <c r="O534" s="2"/>
       <c r="P534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:16">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -10326,7 +10410,7 @@
       <c r="O535" s="2"/>
       <c r="P535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:16">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -10344,7 +10428,7 @@
       <c r="O536" s="2"/>
       <c r="P536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:16">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -10362,7 +10446,7 @@
       <c r="O537" s="2"/>
       <c r="P537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:16">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -10380,7 +10464,7 @@
       <c r="O538" s="2"/>
       <c r="P538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:16">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -10398,7 +10482,7 @@
       <c r="O539" s="2"/>
       <c r="P539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:16">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -10416,7 +10500,7 @@
       <c r="O540" s="2"/>
       <c r="P540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:16">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -10434,7 +10518,7 @@
       <c r="O541" s="2"/>
       <c r="P541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:16">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -10452,7 +10536,7 @@
       <c r="O542" s="2"/>
       <c r="P542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:16">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -10470,7 +10554,7 @@
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:16">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -10488,7 +10572,7 @@
       <c r="O544" s="2"/>
       <c r="P544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:16">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -10506,7 +10590,7 @@
       <c r="O545" s="2"/>
       <c r="P545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:16">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -10524,7 +10608,7 @@
       <c r="O546" s="2"/>
       <c r="P546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:16">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -10542,7 +10626,7 @@
       <c r="O547" s="2"/>
       <c r="P547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:16">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -10560,7 +10644,7 @@
       <c r="O548" s="2"/>
       <c r="P548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:16">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -10578,7 +10662,7 @@
       <c r="O549" s="2"/>
       <c r="P549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:16">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -10596,7 +10680,7 @@
       <c r="O550" s="2"/>
       <c r="P550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:16">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -10614,7 +10698,7 @@
       <c r="O551" s="2"/>
       <c r="P551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:16">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -10632,7 +10716,7 @@
       <c r="O552" s="2"/>
       <c r="P552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:16">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -10650,7 +10734,7 @@
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:16">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -10668,7 +10752,7 @@
       <c r="O554" s="2"/>
       <c r="P554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:16">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -10686,7 +10770,7 @@
       <c r="O555" s="2"/>
       <c r="P555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:16">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -10704,7 +10788,7 @@
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:16">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -10722,7 +10806,7 @@
       <c r="O557" s="2"/>
       <c r="P557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:16">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -10740,7 +10824,7 @@
       <c r="O558" s="2"/>
       <c r="P558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:16">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -10758,7 +10842,7 @@
       <c r="O559" s="2"/>
       <c r="P559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:16">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -10776,7 +10860,7 @@
       <c r="O560" s="2"/>
       <c r="P560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:16">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -10794,7 +10878,7 @@
       <c r="O561" s="2"/>
       <c r="P561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:16">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -10812,7 +10896,7 @@
       <c r="O562" s="2"/>
       <c r="P562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:16">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -10830,7 +10914,7 @@
       <c r="O563" s="2"/>
       <c r="P563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:16">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -10848,7 +10932,7 @@
       <c r="O564" s="2"/>
       <c r="P564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:16">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -10866,7 +10950,7 @@
       <c r="O565" s="2"/>
       <c r="P565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:16">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -10884,7 +10968,7 @@
       <c r="O566" s="2"/>
       <c r="P566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:16">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -10902,7 +10986,7 @@
       <c r="O567" s="2"/>
       <c r="P567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:16">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -10920,7 +11004,7 @@
       <c r="O568" s="2"/>
       <c r="P568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:16">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -10938,7 +11022,7 @@
       <c r="O569" s="2"/>
       <c r="P569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:16">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -10956,7 +11040,7 @@
       <c r="O570" s="2"/>
       <c r="P570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:16">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -10974,7 +11058,7 @@
       <c r="O571" s="2"/>
       <c r="P571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:16">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -10992,7 +11076,7 @@
       <c r="O572" s="2"/>
       <c r="P572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:16">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -11010,7 +11094,7 @@
       <c r="O573" s="2"/>
       <c r="P573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:16">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -11028,7 +11112,7 @@
       <c r="O574" s="2"/>
       <c r="P574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:16">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -11046,7 +11130,7 @@
       <c r="O575" s="2"/>
       <c r="P575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:16">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -11064,7 +11148,7 @@
       <c r="O576" s="2"/>
       <c r="P576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:16">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -11082,7 +11166,7 @@
       <c r="O577" s="2"/>
       <c r="P577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:16">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -11100,7 +11184,7 @@
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:16">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -11118,7 +11202,7 @@
       <c r="O579" s="2"/>
       <c r="P579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:16">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -11136,7 +11220,7 @@
       <c r="O580" s="2"/>
       <c r="P580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:16">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -11154,7 +11238,7 @@
       <c r="O581" s="2"/>
       <c r="P581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:16">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -11172,7 +11256,7 @@
       <c r="O582" s="2"/>
       <c r="P582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:16">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -11190,7 +11274,7 @@
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:16">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -11208,7 +11292,7 @@
       <c r="O584" s="2"/>
       <c r="P584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:16">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -11226,7 +11310,7 @@
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:16">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -11244,7 +11328,7 @@
       <c r="O586" s="2"/>
       <c r="P586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:16">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -11262,7 +11346,7 @@
       <c r="O587" s="2"/>
       <c r="P587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:16">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -11280,7 +11364,7 @@
       <c r="O588" s="2"/>
       <c r="P588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:16">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -11298,7 +11382,7 @@
       <c r="O589" s="2"/>
       <c r="P589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:16">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -11316,7 +11400,7 @@
       <c r="O590" s="2"/>
       <c r="P590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:16">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -11334,7 +11418,7 @@
       <c r="O591" s="2"/>
       <c r="P591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:16">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -11352,7 +11436,7 @@
       <c r="O592" s="2"/>
       <c r="P592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:16">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -11370,7 +11454,7 @@
       <c r="O593" s="2"/>
       <c r="P593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:16">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -11388,7 +11472,7 @@
       <c r="O594" s="2"/>
       <c r="P594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:16">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -11406,7 +11490,7 @@
       <c r="O595" s="2"/>
       <c r="P595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:16">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -11424,7 +11508,7 @@
       <c r="O596" s="2"/>
       <c r="P596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:16">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -11442,7 +11526,7 @@
       <c r="O597" s="2"/>
       <c r="P597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:16">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -11460,7 +11544,7 @@
       <c r="O598" s="2"/>
       <c r="P598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:16">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -11478,7 +11562,7 @@
       <c r="O599" s="2"/>
       <c r="P599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:16">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -11496,7 +11580,7 @@
       <c r="O600" s="2"/>
       <c r="P600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:16">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -11514,7 +11598,7 @@
       <c r="O601" s="2"/>
       <c r="P601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:16">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -11532,7 +11616,7 @@
       <c r="O602" s="2"/>
       <c r="P602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:16">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -11550,7 +11634,7 @@
       <c r="O603" s="2"/>
       <c r="P603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:16">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -11568,7 +11652,7 @@
       <c r="O604" s="2"/>
       <c r="P604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:16">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -11586,7 +11670,7 @@
       <c r="O605" s="2"/>
       <c r="P605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:16">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -11604,7 +11688,7 @@
       <c r="O606" s="2"/>
       <c r="P606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:16">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -11622,7 +11706,7 @@
       <c r="O607" s="2"/>
       <c r="P607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:16">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -11640,7 +11724,7 @@
       <c r="O608" s="2"/>
       <c r="P608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:16">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -11658,7 +11742,7 @@
       <c r="O609" s="2"/>
       <c r="P609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:16">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -11676,7 +11760,7 @@
       <c r="O610" s="2"/>
       <c r="P610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:16">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -11694,7 +11778,7 @@
       <c r="O611" s="2"/>
       <c r="P611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:16">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -11712,7 +11796,7 @@
       <c r="O612" s="2"/>
       <c r="P612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:16">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -11730,7 +11814,7 @@
       <c r="O613" s="2"/>
       <c r="P613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:16">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -11748,7 +11832,7 @@
       <c r="O614" s="2"/>
       <c r="P614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:16">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -11766,7 +11850,7 @@
       <c r="O615" s="2"/>
       <c r="P615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:16">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -11784,7 +11868,7 @@
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:16">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -11802,7 +11886,7 @@
       <c r="O617" s="2"/>
       <c r="P617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:16">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -11820,7 +11904,7 @@
       <c r="O618" s="2"/>
       <c r="P618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:16">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -11838,7 +11922,7 @@
       <c r="O619" s="2"/>
       <c r="P619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:16">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -11856,7 +11940,7 @@
       <c r="O620" s="2"/>
       <c r="P620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:16">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -11874,7 +11958,7 @@
       <c r="O621" s="2"/>
       <c r="P621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:16">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -11892,7 +11976,7 @@
       <c r="O622" s="2"/>
       <c r="P622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:16">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -11910,7 +11994,7 @@
       <c r="O623" s="2"/>
       <c r="P623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:16">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -11928,7 +12012,7 @@
       <c r="O624" s="2"/>
       <c r="P624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:16">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -11946,7 +12030,7 @@
       <c r="O625" s="2"/>
       <c r="P625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:16">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -11964,7 +12048,7 @@
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:16">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -11982,7 +12066,7 @@
       <c r="O627" s="2"/>
       <c r="P627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:16">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -12000,7 +12084,7 @@
       <c r="O628" s="2"/>
       <c r="P628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:16">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -12018,7 +12102,7 @@
       <c r="O629" s="2"/>
       <c r="P629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:16">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -12036,7 +12120,7 @@
       <c r="O630" s="2"/>
       <c r="P630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:16">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -12054,7 +12138,7 @@
       <c r="O631" s="2"/>
       <c r="P631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:16">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -12072,7 +12156,7 @@
       <c r="O632" s="2"/>
       <c r="P632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:16">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -12090,7 +12174,7 @@
       <c r="O633" s="2"/>
       <c r="P633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:16">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -12108,7 +12192,7 @@
       <c r="O634" s="2"/>
       <c r="P634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:16">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -12126,7 +12210,7 @@
       <c r="O635" s="2"/>
       <c r="P635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:16">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -12144,7 +12228,7 @@
       <c r="O636" s="2"/>
       <c r="P636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:16">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -12162,7 +12246,7 @@
       <c r="O637" s="2"/>
       <c r="P637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:16">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -12180,7 +12264,7 @@
       <c r="O638" s="2"/>
       <c r="P638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:16">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -12198,7 +12282,7 @@
       <c r="O639" s="2"/>
       <c r="P639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:16">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -12216,7 +12300,7 @@
       <c r="O640" s="2"/>
       <c r="P640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:16">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -12234,7 +12318,7 @@
       <c r="O641" s="2"/>
       <c r="P641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:16">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -12252,7 +12336,7 @@
       <c r="O642" s="2"/>
       <c r="P642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:16">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -12270,7 +12354,7 @@
       <c r="O643" s="2"/>
       <c r="P643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:16">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -12288,7 +12372,7 @@
       <c r="O644" s="2"/>
       <c r="P644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:16">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -12306,7 +12390,7 @@
       <c r="O645" s="2"/>
       <c r="P645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:16">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -12324,7 +12408,7 @@
       <c r="O646" s="2"/>
       <c r="P646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:16">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -12342,7 +12426,7 @@
       <c r="O647" s="2"/>
       <c r="P647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:16">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -12360,7 +12444,7 @@
       <c r="O648" s="2"/>
       <c r="P648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:16">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -12378,7 +12462,7 @@
       <c r="O649" s="2"/>
       <c r="P649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:16">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -12396,7 +12480,7 @@
       <c r="O650" s="2"/>
       <c r="P650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:16">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -12414,7 +12498,7 @@
       <c r="O651" s="2"/>
       <c r="P651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:16">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -12432,7 +12516,7 @@
       <c r="O652" s="2"/>
       <c r="P652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:16">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -12450,7 +12534,7 @@
       <c r="O653" s="2"/>
       <c r="P653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:16">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -12468,7 +12552,7 @@
       <c r="O654" s="2"/>
       <c r="P654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:16">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -12486,7 +12570,7 @@
       <c r="O655" s="2"/>
       <c r="P655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:16">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -12504,7 +12588,7 @@
       <c r="O656" s="2"/>
       <c r="P656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:16">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -12522,7 +12606,7 @@
       <c r="O657" s="2"/>
       <c r="P657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:16">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -12540,7 +12624,7 @@
       <c r="O658" s="2"/>
       <c r="P658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:16">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -12558,7 +12642,7 @@
       <c r="O659" s="2"/>
       <c r="P659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:16">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -12576,7 +12660,7 @@
       <c r="O660" s="2"/>
       <c r="P660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:16">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -12594,7 +12678,7 @@
       <c r="O661" s="2"/>
       <c r="P661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:16">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -12612,7 +12696,7 @@
       <c r="O662" s="2"/>
       <c r="P662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:16">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -12630,7 +12714,7 @@
       <c r="O663" s="2"/>
       <c r="P663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:16">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -12648,7 +12732,7 @@
       <c r="O664" s="2"/>
       <c r="P664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:16">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -12666,7 +12750,7 @@
       <c r="O665" s="2"/>
       <c r="P665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:16">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -12684,7 +12768,7 @@
       <c r="O666" s="2"/>
       <c r="P666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:16">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -12702,7 +12786,7 @@
       <c r="O667" s="2"/>
       <c r="P667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:16">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -12720,7 +12804,7 @@
       <c r="O668" s="2"/>
       <c r="P668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:16">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -12738,7 +12822,7 @@
       <c r="O669" s="2"/>
       <c r="P669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:16">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -12756,7 +12840,7 @@
       <c r="O670" s="2"/>
       <c r="P670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:16">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -12774,7 +12858,7 @@
       <c r="O671" s="2"/>
       <c r="P671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:16">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -12792,7 +12876,7 @@
       <c r="O672" s="2"/>
       <c r="P672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:16">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -12810,7 +12894,7 @@
       <c r="O673" s="2"/>
       <c r="P673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:16">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -12828,7 +12912,7 @@
       <c r="O674" s="2"/>
       <c r="P674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:16">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -12846,7 +12930,7 @@
       <c r="O675" s="2"/>
       <c r="P675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:16">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -12864,7 +12948,7 @@
       <c r="O676" s="2"/>
       <c r="P676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:16">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -12882,7 +12966,7 @@
       <c r="O677" s="2"/>
       <c r="P677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:16">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -12900,7 +12984,7 @@
       <c r="O678" s="2"/>
       <c r="P678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:16">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -12918,7 +13002,7 @@
       <c r="O679" s="2"/>
       <c r="P679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:16">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -12936,7 +13020,7 @@
       <c r="O680" s="2"/>
       <c r="P680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:16">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -12954,7 +13038,7 @@
       <c r="O681" s="2"/>
       <c r="P681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:16">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -12972,7 +13056,7 @@
       <c r="O682" s="2"/>
       <c r="P682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:16">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -12990,7 +13074,7 @@
       <c r="O683" s="2"/>
       <c r="P683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:16">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -13008,7 +13092,7 @@
       <c r="O684" s="2"/>
       <c r="P684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:16">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -13026,7 +13110,7 @@
       <c r="O685" s="2"/>
       <c r="P685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:16">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -13044,7 +13128,7 @@
       <c r="O686" s="2"/>
       <c r="P686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:16">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -13062,7 +13146,7 @@
       <c r="O687" s="2"/>
       <c r="P687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:16">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -13080,7 +13164,7 @@
       <c r="O688" s="2"/>
       <c r="P688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:16">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -13098,7 +13182,7 @@
       <c r="O689" s="2"/>
       <c r="P689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:16">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -13116,7 +13200,7 @@
       <c r="O690" s="2"/>
       <c r="P690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:16">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -13134,7 +13218,7 @@
       <c r="O691" s="2"/>
       <c r="P691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:16">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -13152,7 +13236,7 @@
       <c r="O692" s="2"/>
       <c r="P692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:16">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -13170,7 +13254,7 @@
       <c r="O693" s="2"/>
       <c r="P693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:16">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -13188,7 +13272,7 @@
       <c r="O694" s="2"/>
       <c r="P694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:16">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -13206,7 +13290,7 @@
       <c r="O695" s="2"/>
       <c r="P695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:16">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -13224,7 +13308,7 @@
       <c r="O696" s="2"/>
       <c r="P696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:16">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -13242,7 +13326,7 @@
       <c r="O697" s="2"/>
       <c r="P697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:16">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -13260,7 +13344,7 @@
       <c r="O698" s="2"/>
       <c r="P698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:16">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -13278,7 +13362,7 @@
       <c r="O699" s="2"/>
       <c r="P699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:16">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -13296,7 +13380,7 @@
       <c r="O700" s="2"/>
       <c r="P700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:16">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -13314,7 +13398,7 @@
       <c r="O701" s="2"/>
       <c r="P701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:16">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -13332,7 +13416,7 @@
       <c r="O702" s="2"/>
       <c r="P702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:16">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -13350,7 +13434,7 @@
       <c r="O703" s="2"/>
       <c r="P703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:16">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -13368,7 +13452,7 @@
       <c r="O704" s="2"/>
       <c r="P704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:16">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -13386,7 +13470,7 @@
       <c r="O705" s="2"/>
       <c r="P705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:16">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -13404,7 +13488,7 @@
       <c r="O706" s="2"/>
       <c r="P706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:16">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -13422,7 +13506,7 @@
       <c r="O707" s="2"/>
       <c r="P707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:16">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -13440,7 +13524,7 @@
       <c r="O708" s="2"/>
       <c r="P708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:16">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -13458,7 +13542,7 @@
       <c r="O709" s="2"/>
       <c r="P709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:16">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -13476,7 +13560,7 @@
       <c r="O710" s="2"/>
       <c r="P710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:16">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -13494,7 +13578,7 @@
       <c r="O711" s="2"/>
       <c r="P711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:16">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -13512,7 +13596,7 @@
       <c r="O712" s="2"/>
       <c r="P712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:16">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -13530,7 +13614,7 @@
       <c r="O713" s="2"/>
       <c r="P713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:16">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -13548,7 +13632,7 @@
       <c r="O714" s="2"/>
       <c r="P714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:16">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -13566,7 +13650,7 @@
       <c r="O715" s="2"/>
       <c r="P715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:16">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -13584,7 +13668,7 @@
       <c r="O716" s="2"/>
       <c r="P716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:16">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -13602,7 +13686,7 @@
       <c r="O717" s="2"/>
       <c r="P717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:16">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -13620,7 +13704,7 @@
       <c r="O718" s="2"/>
       <c r="P718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:16">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -13638,7 +13722,7 @@
       <c r="O719" s="2"/>
       <c r="P719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:16">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -13656,7 +13740,7 @@
       <c r="O720" s="2"/>
       <c r="P720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:16">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -13674,7 +13758,7 @@
       <c r="O721" s="2"/>
       <c r="P721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:16">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -13692,7 +13776,7 @@
       <c r="O722" s="2"/>
       <c r="P722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:16">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -13710,7 +13794,7 @@
       <c r="O723" s="2"/>
       <c r="P723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:16">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -13728,7 +13812,7 @@
       <c r="O724" s="2"/>
       <c r="P724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:16">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -13746,7 +13830,7 @@
       <c r="O725" s="2"/>
       <c r="P725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:16">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -13764,7 +13848,7 @@
       <c r="O726" s="2"/>
       <c r="P726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:16">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -13782,7 +13866,7 @@
       <c r="O727" s="2"/>
       <c r="P727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:16">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -13800,7 +13884,7 @@
       <c r="O728" s="2"/>
       <c r="P728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:16">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -13818,7 +13902,7 @@
       <c r="O729" s="2"/>
       <c r="P729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:16">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -13836,7 +13920,7 @@
       <c r="O730" s="2"/>
       <c r="P730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:16">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -13854,7 +13938,7 @@
       <c r="O731" s="2"/>
       <c r="P731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:16">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -13872,7 +13956,7 @@
       <c r="O732" s="2"/>
       <c r="P732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:16">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -13890,7 +13974,7 @@
       <c r="O733" s="2"/>
       <c r="P733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:16">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -13908,7 +13992,7 @@
       <c r="O734" s="2"/>
       <c r="P734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:16">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -13926,7 +14010,7 @@
       <c r="O735" s="2"/>
       <c r="P735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:16">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -13944,7 +14028,7 @@
       <c r="O736" s="2"/>
       <c r="P736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:16">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -13962,7 +14046,7 @@
       <c r="O737" s="2"/>
       <c r="P737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:16">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -13980,7 +14064,7 @@
       <c r="O738" s="2"/>
       <c r="P738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:16">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -13998,7 +14082,7 @@
       <c r="O739" s="2"/>
       <c r="P739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:16">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -14016,7 +14100,7 @@
       <c r="O740" s="2"/>
       <c r="P740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:16">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -14034,7 +14118,7 @@
       <c r="O741" s="2"/>
       <c r="P741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:16">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -14052,7 +14136,7 @@
       <c r="O742" s="2"/>
       <c r="P742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:16">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -14070,7 +14154,7 @@
       <c r="O743" s="2"/>
       <c r="P743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:16">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -14088,7 +14172,7 @@
       <c r="O744" s="2"/>
       <c r="P744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:16">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -14106,7 +14190,7 @@
       <c r="O745" s="2"/>
       <c r="P745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:16">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -14124,7 +14208,7 @@
       <c r="O746" s="2"/>
       <c r="P746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:16">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -14142,7 +14226,7 @@
       <c r="O747" s="2"/>
       <c r="P747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:16">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -14160,7 +14244,7 @@
       <c r="O748" s="2"/>
       <c r="P748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:16">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -14178,7 +14262,7 @@
       <c r="O749" s="2"/>
       <c r="P749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:16">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -14196,7 +14280,7 @@
       <c r="O750" s="2"/>
       <c r="P750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:16">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -14214,7 +14298,7 @@
       <c r="O751" s="2"/>
       <c r="P751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:16">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -14232,7 +14316,7 @@
       <c r="O752" s="2"/>
       <c r="P752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:16">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -14250,7 +14334,7 @@
       <c r="O753" s="2"/>
       <c r="P753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:16">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -14268,7 +14352,7 @@
       <c r="O754" s="2"/>
       <c r="P754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:16">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -14286,7 +14370,7 @@
       <c r="O755" s="2"/>
       <c r="P755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:16">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -14304,7 +14388,7 @@
       <c r="O756" s="2"/>
       <c r="P756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:16">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -14322,7 +14406,7 @@
       <c r="O757" s="2"/>
       <c r="P757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:16">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -14340,7 +14424,7 @@
       <c r="O758" s="2"/>
       <c r="P758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:16">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -14358,7 +14442,7 @@
       <c r="O759" s="2"/>
       <c r="P759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:16">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -14376,7 +14460,7 @@
       <c r="O760" s="2"/>
       <c r="P760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:16">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -14394,7 +14478,7 @@
       <c r="O761" s="2"/>
       <c r="P761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:16">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -14412,7 +14496,7 @@
       <c r="O762" s="2"/>
       <c r="P762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:16">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -14430,7 +14514,7 @@
       <c r="O763" s="2"/>
       <c r="P763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:16">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -14448,7 +14532,7 @@
       <c r="O764" s="2"/>
       <c r="P764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:16">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -14466,7 +14550,7 @@
       <c r="O765" s="2"/>
       <c r="P765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:16">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -14484,7 +14568,7 @@
       <c r="O766" s="2"/>
       <c r="P766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:16">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -14502,7 +14586,7 @@
       <c r="O767" s="2"/>
       <c r="P767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:16">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -14520,7 +14604,7 @@
       <c r="O768" s="2"/>
       <c r="P768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:16">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -14538,7 +14622,7 @@
       <c r="O769" s="2"/>
       <c r="P769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:16">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -14556,7 +14640,7 @@
       <c r="O770" s="2"/>
       <c r="P770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:16">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -14574,7 +14658,7 @@
       <c r="O771" s="2"/>
       <c r="P771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:16">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -14592,7 +14676,7 @@
       <c r="O772" s="2"/>
       <c r="P772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:16">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -14610,7 +14694,7 @@
       <c r="O773" s="2"/>
       <c r="P773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:16">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -14628,7 +14712,7 @@
       <c r="O774" s="2"/>
       <c r="P774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:16">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -14646,7 +14730,7 @@
       <c r="O775" s="2"/>
       <c r="P775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:16">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -14664,7 +14748,7 @@
       <c r="O776" s="2"/>
       <c r="P776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:16">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -14682,7 +14766,7 @@
       <c r="O777" s="2"/>
       <c r="P777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:16">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -14700,7 +14784,7 @@
       <c r="O778" s="2"/>
       <c r="P778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:16">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -14718,7 +14802,7 @@
       <c r="O779" s="2"/>
       <c r="P779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:16">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -14736,7 +14820,7 @@
       <c r="O780" s="2"/>
       <c r="P780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:16">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -14754,7 +14838,7 @@
       <c r="O781" s="2"/>
       <c r="P781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:16">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -14772,7 +14856,7 @@
       <c r="O782" s="2"/>
       <c r="P782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:16">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -14790,7 +14874,7 @@
       <c r="O783" s="2"/>
       <c r="P783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:16">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -14808,7 +14892,7 @@
       <c r="O784" s="2"/>
       <c r="P784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:16">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -14826,7 +14910,7 @@
       <c r="O785" s="2"/>
       <c r="P785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:16">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -14844,7 +14928,7 @@
       <c r="O786" s="2"/>
       <c r="P786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:16">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -14862,7 +14946,7 @@
       <c r="O787" s="2"/>
       <c r="P787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:16">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -14880,7 +14964,7 @@
       <c r="O788" s="2"/>
       <c r="P788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:16">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -14898,7 +14982,7 @@
       <c r="O789" s="2"/>
       <c r="P789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:16">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -14916,7 +15000,7 @@
       <c r="O790" s="2"/>
       <c r="P790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:16">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -14934,7 +15018,7 @@
       <c r="O791" s="2"/>
       <c r="P791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:16">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -14952,7 +15036,7 @@
       <c r="O792" s="2"/>
       <c r="P792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:16">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -14970,7 +15054,7 @@
       <c r="O793" s="2"/>
       <c r="P793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:16">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -14988,7 +15072,7 @@
       <c r="O794" s="2"/>
       <c r="P794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:16">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -15006,7 +15090,7 @@
       <c r="O795" s="2"/>
       <c r="P795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:16">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -15024,7 +15108,7 @@
       <c r="O796" s="2"/>
       <c r="P796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:16">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -15042,7 +15126,7 @@
       <c r="O797" s="2"/>
       <c r="P797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:16">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -15060,7 +15144,7 @@
       <c r="O798" s="2"/>
       <c r="P798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:16">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -15078,7 +15162,7 @@
       <c r="O799" s="2"/>
       <c r="P799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:16">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -15096,7 +15180,7 @@
       <c r="O800" s="2"/>
       <c r="P800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:16">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -15114,7 +15198,7 @@
       <c r="O801" s="2"/>
       <c r="P801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:16">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -15132,7 +15216,7 @@
       <c r="O802" s="2"/>
       <c r="P802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:16">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -15150,7 +15234,7 @@
       <c r="O803" s="2"/>
       <c r="P803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:16">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -15168,7 +15252,7 @@
       <c r="O804" s="2"/>
       <c r="P804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:16">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -15186,7 +15270,7 @@
       <c r="O805" s="2"/>
       <c r="P805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:16">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -15204,7 +15288,7 @@
       <c r="O806" s="2"/>
       <c r="P806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:16">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -15222,7 +15306,7 @@
       <c r="O807" s="2"/>
       <c r="P807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:16">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -15240,7 +15324,7 @@
       <c r="O808" s="2"/>
       <c r="P808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:16">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -15258,7 +15342,7 @@
       <c r="O809" s="2"/>
       <c r="P809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:16">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -15276,7 +15360,7 @@
       <c r="O810" s="2"/>
       <c r="P810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:16">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -15294,7 +15378,7 @@
       <c r="O811" s="2"/>
       <c r="P811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:16">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -15312,7 +15396,7 @@
       <c r="O812" s="2"/>
       <c r="P812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:16">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -15330,7 +15414,7 @@
       <c r="O813" s="2"/>
       <c r="P813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:16">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -15348,7 +15432,7 @@
       <c r="O814" s="2"/>
       <c r="P814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:16">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -15366,7 +15450,7 @@
       <c r="O815" s="2"/>
       <c r="P815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:16">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -15384,7 +15468,7 @@
       <c r="O816" s="2"/>
       <c r="P816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:16">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -15402,7 +15486,7 @@
       <c r="O817" s="2"/>
       <c r="P817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:16">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -15420,7 +15504,7 @@
       <c r="O818" s="2"/>
       <c r="P818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:16">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -15438,7 +15522,7 @@
       <c r="O819" s="2"/>
       <c r="P819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:16">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -15456,7 +15540,7 @@
       <c r="O820" s="2"/>
       <c r="P820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:16">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -15474,7 +15558,7 @@
       <c r="O821" s="2"/>
       <c r="P821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:16">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -15492,7 +15576,7 @@
       <c r="O822" s="2"/>
       <c r="P822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:16">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -15510,7 +15594,7 @@
       <c r="O823" s="2"/>
       <c r="P823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:16">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -15528,7 +15612,7 @@
       <c r="O824" s="2"/>
       <c r="P824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:16">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -15546,7 +15630,7 @@
       <c r="O825" s="2"/>
       <c r="P825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:16">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -15564,7 +15648,7 @@
       <c r="O826" s="2"/>
       <c r="P826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:16">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -15582,7 +15666,7 @@
       <c r="O827" s="2"/>
       <c r="P827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:16">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -15600,7 +15684,7 @@
       <c r="O828" s="2"/>
       <c r="P828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:16">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -15618,7 +15702,7 @@
       <c r="O829" s="2"/>
       <c r="P829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:16">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -15636,7 +15720,7 @@
       <c r="O830" s="2"/>
       <c r="P830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:16">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -15654,7 +15738,7 @@
       <c r="O831" s="2"/>
       <c r="P831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:16">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -15672,7 +15756,7 @@
       <c r="O832" s="2"/>
       <c r="P832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:16">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -15690,7 +15774,7 @@
       <c r="O833" s="2"/>
       <c r="P833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:16">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -15708,7 +15792,7 @@
       <c r="O834" s="2"/>
       <c r="P834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:16">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -15726,7 +15810,7 @@
       <c r="O835" s="2"/>
       <c r="P835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:16">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -15744,7 +15828,7 @@
       <c r="O836" s="2"/>
       <c r="P836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:16">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -15762,7 +15846,7 @@
       <c r="O837" s="2"/>
       <c r="P837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:16">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -15780,7 +15864,7 @@
       <c r="O838" s="2"/>
       <c r="P838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:16">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -15798,7 +15882,7 @@
       <c r="O839" s="2"/>
       <c r="P839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:16">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -15816,7 +15900,7 @@
       <c r="O840" s="2"/>
       <c r="P840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:16">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -15834,7 +15918,7 @@
       <c r="O841" s="2"/>
       <c r="P841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:16">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -15852,7 +15936,7 @@
       <c r="O842" s="2"/>
       <c r="P842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:16">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -15870,7 +15954,7 @@
       <c r="O843" s="2"/>
       <c r="P843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:16">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -15888,7 +15972,7 @@
       <c r="O844" s="2"/>
       <c r="P844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:16">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -15906,7 +15990,7 @@
       <c r="O845" s="2"/>
       <c r="P845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:16">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -15924,7 +16008,7 @@
       <c r="O846" s="2"/>
       <c r="P846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:16">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -15942,7 +16026,7 @@
       <c r="O847" s="2"/>
       <c r="P847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:16">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -15960,7 +16044,7 @@
       <c r="O848" s="2"/>
       <c r="P848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:16">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -15978,7 +16062,7 @@
       <c r="O849" s="2"/>
       <c r="P849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:16">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -15996,7 +16080,7 @@
       <c r="O850" s="2"/>
       <c r="P850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:16">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -16014,7 +16098,7 @@
       <c r="O851" s="2"/>
       <c r="P851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:16">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -16032,7 +16116,7 @@
       <c r="O852" s="2"/>
       <c r="P852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:16">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -16050,7 +16134,7 @@
       <c r="O853" s="2"/>
       <c r="P853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:16">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -16068,7 +16152,7 @@
       <c r="O854" s="2"/>
       <c r="P854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:16">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -16086,7 +16170,7 @@
       <c r="O855" s="2"/>
       <c r="P855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:16">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -16104,7 +16188,7 @@
       <c r="O856" s="2"/>
       <c r="P856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:16">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -16122,7 +16206,7 @@
       <c r="O857" s="2"/>
       <c r="P857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:16">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -16140,7 +16224,7 @@
       <c r="O858" s="2"/>
       <c r="P858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:16">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -16158,7 +16242,7 @@
       <c r="O859" s="2"/>
       <c r="P859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:16">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -16176,7 +16260,7 @@
       <c r="O860" s="2"/>
       <c r="P860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:16">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -16194,7 +16278,7 @@
       <c r="O861" s="2"/>
       <c r="P861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:16">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -16212,7 +16296,7 @@
       <c r="O862" s="2"/>
       <c r="P862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:16">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -16230,7 +16314,7 @@
       <c r="O863" s="2"/>
       <c r="P863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:16">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -16248,7 +16332,7 @@
       <c r="O864" s="2"/>
       <c r="P864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:16">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -16266,7 +16350,7 @@
       <c r="O865" s="2"/>
       <c r="P865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:16">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -16284,7 +16368,7 @@
       <c r="O866" s="2"/>
       <c r="P866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:16">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -16302,7 +16386,7 @@
       <c r="O867" s="2"/>
       <c r="P867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:16">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -16320,7 +16404,7 @@
       <c r="O868" s="2"/>
       <c r="P868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:16">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -16338,7 +16422,7 @@
       <c r="O869" s="2"/>
       <c r="P869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:16">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -16356,7 +16440,7 @@
       <c r="O870" s="2"/>
       <c r="P870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:16">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -16374,7 +16458,7 @@
       <c r="O871" s="2"/>
       <c r="P871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:16">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -16392,7 +16476,7 @@
       <c r="O872" s="2"/>
       <c r="P872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:16">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -16410,7 +16494,7 @@
       <c r="O873" s="2"/>
       <c r="P873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:16">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -16428,7 +16512,7 @@
       <c r="O874" s="2"/>
       <c r="P874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:16">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -16446,7 +16530,7 @@
       <c r="O875" s="2"/>
       <c r="P875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:16">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -16464,7 +16548,7 @@
       <c r="O876" s="2"/>
       <c r="P876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:16">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -16482,7 +16566,7 @@
       <c r="O877" s="2"/>
       <c r="P877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:16">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -16500,7 +16584,7 @@
       <c r="O878" s="2"/>
       <c r="P878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:16">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -16518,7 +16602,7 @@
       <c r="O879" s="2"/>
       <c r="P879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:16">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -16536,7 +16620,7 @@
       <c r="O880" s="2"/>
       <c r="P880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:16">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -16554,7 +16638,7 @@
       <c r="O881" s="2"/>
       <c r="P881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:16">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -16572,7 +16656,7 @@
       <c r="O882" s="2"/>
       <c r="P882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:16">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -16590,7 +16674,7 @@
       <c r="O883" s="2"/>
       <c r="P883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:16">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -16608,7 +16692,7 @@
       <c r="O884" s="2"/>
       <c r="P884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:16">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -16626,7 +16710,7 @@
       <c r="O885" s="2"/>
       <c r="P885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:16">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -16644,7 +16728,7 @@
       <c r="O886" s="2"/>
       <c r="P886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:16">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -16662,7 +16746,7 @@
       <c r="O887" s="2"/>
       <c r="P887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:16">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -16680,7 +16764,7 @@
       <c r="O888" s="2"/>
       <c r="P888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:16">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -16698,7 +16782,7 @@
       <c r="O889" s="2"/>
       <c r="P889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:16">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -16716,7 +16800,7 @@
       <c r="O890" s="2"/>
       <c r="P890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:16">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -16734,7 +16818,7 @@
       <c r="O891" s="2"/>
       <c r="P891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:16">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -16752,7 +16836,7 @@
       <c r="O892" s="2"/>
       <c r="P892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:16">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -16770,7 +16854,7 @@
       <c r="O893" s="2"/>
       <c r="P893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:16">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -16788,7 +16872,7 @@
       <c r="O894" s="2"/>
       <c r="P894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:16">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -16806,7 +16890,7 @@
       <c r="O895" s="2"/>
       <c r="P895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:16">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -16824,7 +16908,7 @@
       <c r="O896" s="2"/>
       <c r="P896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:16">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -16842,7 +16926,7 @@
       <c r="O897" s="2"/>
       <c r="P897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:16">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -16860,7 +16944,7 @@
       <c r="O898" s="2"/>
       <c r="P898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:16">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -16878,7 +16962,7 @@
       <c r="O899" s="2"/>
       <c r="P899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:16">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -16896,7 +16980,7 @@
       <c r="O900" s="2"/>
       <c r="P900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:16">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -16914,7 +16998,7 @@
       <c r="O901" s="2"/>
       <c r="P901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:16">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -16932,7 +17016,7 @@
       <c r="O902" s="2"/>
       <c r="P902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:16">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -16950,7 +17034,7 @@
       <c r="O903" s="2"/>
       <c r="P903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:16">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -16968,7 +17052,7 @@
       <c r="O904" s="2"/>
       <c r="P904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:16">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -16986,7 +17070,7 @@
       <c r="O905" s="2"/>
       <c r="P905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:16">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -17004,7 +17088,7 @@
       <c r="O906" s="2"/>
       <c r="P906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:16">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -17022,7 +17106,7 @@
       <c r="O907" s="2"/>
       <c r="P907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:16">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -17040,7 +17124,7 @@
       <c r="O908" s="2"/>
       <c r="P908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:16">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -17058,7 +17142,7 @@
       <c r="O909" s="2"/>
       <c r="P909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:16">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -17076,7 +17160,7 @@
       <c r="O910" s="2"/>
       <c r="P910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:16">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -17094,7 +17178,7 @@
       <c r="O911" s="2"/>
       <c r="P911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:16">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -17112,7 +17196,7 @@
       <c r="O912" s="2"/>
       <c r="P912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:16">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -17130,7 +17214,7 @@
       <c r="O913" s="2"/>
       <c r="P913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:16">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -17148,7 +17232,7 @@
       <c r="O914" s="2"/>
       <c r="P914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:16">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -17166,7 +17250,7 @@
       <c r="O915" s="2"/>
       <c r="P915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:16">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -17184,7 +17268,7 @@
       <c r="O916" s="2"/>
       <c r="P916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:16">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -17202,7 +17286,7 @@
       <c r="O917" s="2"/>
       <c r="P917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:16">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -17220,7 +17304,7 @@
       <c r="O918" s="2"/>
       <c r="P918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:16">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -17238,7 +17322,7 @@
       <c r="O919" s="2"/>
       <c r="P919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:16">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -17256,7 +17340,7 @@
       <c r="O920" s="2"/>
       <c r="P920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:16">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -17274,7 +17358,7 @@
       <c r="O921" s="2"/>
       <c r="P921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:16">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -17292,7 +17376,7 @@
       <c r="O922" s="2"/>
       <c r="P922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:16">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -17310,7 +17394,7 @@
       <c r="O923" s="2"/>
       <c r="P923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:16">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -17328,7 +17412,7 @@
       <c r="O924" s="2"/>
       <c r="P924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:16">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -17346,7 +17430,7 @@
       <c r="O925" s="2"/>
       <c r="P925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:16">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -17364,7 +17448,7 @@
       <c r="O926" s="2"/>
       <c r="P926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:16">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -17382,7 +17466,7 @@
       <c r="O927" s="2"/>
       <c r="P927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:16">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -17400,7 +17484,7 @@
       <c r="O928" s="2"/>
       <c r="P928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:16">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -17418,7 +17502,7 @@
       <c r="O929" s="2"/>
       <c r="P929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:16">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -17436,7 +17520,7 @@
       <c r="O930" s="2"/>
       <c r="P930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:16">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -17454,7 +17538,7 @@
       <c r="O931" s="2"/>
       <c r="P931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:16">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -17472,7 +17556,7 @@
       <c r="O932" s="2"/>
       <c r="P932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:16">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -17490,7 +17574,7 @@
       <c r="O933" s="2"/>
       <c r="P933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:16">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -17508,7 +17592,7 @@
       <c r="O934" s="2"/>
       <c r="P934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:16">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -17526,7 +17610,7 @@
       <c r="O935" s="2"/>
       <c r="P935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:16">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -17544,7 +17628,7 @@
       <c r="O936" s="2"/>
       <c r="P936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:16">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -17562,7 +17646,7 @@
       <c r="O937" s="2"/>
       <c r="P937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:16">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -17580,7 +17664,7 @@
       <c r="O938" s="2"/>
       <c r="P938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:16">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -17598,7 +17682,7 @@
       <c r="O939" s="2"/>
       <c r="P939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:16">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -17616,7 +17700,7 @@
       <c r="O940" s="2"/>
       <c r="P940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:16">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -17634,7 +17718,7 @@
       <c r="O941" s="2"/>
       <c r="P941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:16">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -17652,7 +17736,7 @@
       <c r="O942" s="2"/>
       <c r="P942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:16">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -17670,7 +17754,7 @@
       <c r="O943" s="2"/>
       <c r="P943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:16">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -17688,7 +17772,7 @@
       <c r="O944" s="2"/>
       <c r="P944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:16">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -17706,7 +17790,7 @@
       <c r="O945" s="2"/>
       <c r="P945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:16">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -17724,7 +17808,7 @@
       <c r="O946" s="2"/>
       <c r="P946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:16">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -17742,7 +17826,7 @@
       <c r="O947" s="2"/>
       <c r="P947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:16">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -17760,7 +17844,7 @@
       <c r="O948" s="2"/>
       <c r="P948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:16">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -17778,7 +17862,7 @@
       <c r="O949" s="2"/>
       <c r="P949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:16">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -17796,7 +17880,7 @@
       <c r="O950" s="2"/>
       <c r="P950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:16">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -17814,7 +17898,7 @@
       <c r="O951" s="2"/>
       <c r="P951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:16">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -17832,7 +17916,7 @@
       <c r="O952" s="2"/>
       <c r="P952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:16">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -17850,7 +17934,7 @@
       <c r="O953" s="2"/>
       <c r="P953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:16">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -17868,7 +17952,7 @@
       <c r="O954" s="2"/>
       <c r="P954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:16">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -17886,7 +17970,7 @@
       <c r="O955" s="2"/>
       <c r="P955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:16">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -17904,7 +17988,7 @@
       <c r="O956" s="2"/>
       <c r="P956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:16">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -17922,7 +18006,7 @@
       <c r="O957" s="2"/>
       <c r="P957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:16">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -17940,7 +18024,7 @@
       <c r="O958" s="2"/>
       <c r="P958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:16">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -17958,7 +18042,7 @@
       <c r="O959" s="2"/>
       <c r="P959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:16">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -17976,7 +18060,7 @@
       <c r="O960" s="2"/>
       <c r="P960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:16">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -17994,7 +18078,7 @@
       <c r="O961" s="2"/>
       <c r="P961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:16">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -18012,7 +18096,7 @@
       <c r="O962" s="2"/>
       <c r="P962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:16">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -18030,7 +18114,7 @@
       <c r="O963" s="2"/>
       <c r="P963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:16">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -18048,7 +18132,7 @@
       <c r="O964" s="2"/>
       <c r="P964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:16">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -18066,7 +18150,7 @@
       <c r="O965" s="2"/>
       <c r="P965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:16">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -18084,7 +18168,7 @@
       <c r="O966" s="2"/>
       <c r="P966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:16">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -18102,7 +18186,7 @@
       <c r="O967" s="2"/>
       <c r="P967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:16">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -18120,7 +18204,7 @@
       <c r="O968" s="2"/>
       <c r="P968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:16">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -18138,7 +18222,7 @@
       <c r="O969" s="2"/>
       <c r="P969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:16">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -18156,7 +18240,7 @@
       <c r="O970" s="2"/>
       <c r="P970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:16">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -18174,7 +18258,7 @@
       <c r="O971" s="2"/>
       <c r="P971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:16">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -18192,7 +18276,7 @@
       <c r="O972" s="2"/>
       <c r="P972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:16">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -18210,7 +18294,7 @@
       <c r="O973" s="2"/>
       <c r="P973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:16">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -18228,7 +18312,7 @@
       <c r="O974" s="2"/>
       <c r="P974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:16">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -18246,7 +18330,7 @@
       <c r="O975" s="2"/>
       <c r="P975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:16">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -18264,7 +18348,7 @@
       <c r="O976" s="2"/>
       <c r="P976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:16">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -18282,7 +18366,7 @@
       <c r="O977" s="2"/>
       <c r="P977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:16">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -18300,7 +18384,7 @@
       <c r="O978" s="2"/>
       <c r="P978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:16">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -18318,7 +18402,7 @@
       <c r="O979" s="2"/>
       <c r="P979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:16">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -18336,7 +18420,7 @@
       <c r="O980" s="2"/>
       <c r="P980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:16">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -18354,7 +18438,7 @@
       <c r="O981" s="2"/>
       <c r="P981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:16">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -18372,7 +18456,7 @@
       <c r="O982" s="2"/>
       <c r="P982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:16">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -18390,7 +18474,7 @@
       <c r="O983" s="2"/>
       <c r="P983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:16">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -18408,7 +18492,7 @@
       <c r="O984" s="2"/>
       <c r="P984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:16">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -18426,7 +18510,7 @@
       <c r="O985" s="2"/>
       <c r="P985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:16">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -18444,7 +18528,7 @@
       <c r="O986" s="2"/>
       <c r="P986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:16">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -18462,7 +18546,7 @@
       <c r="O987" s="2"/>
       <c r="P987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:16">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -18480,7 +18564,7 @@
       <c r="O988" s="2"/>
       <c r="P988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:16">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -18498,7 +18582,7 @@
       <c r="O989" s="2"/>
       <c r="P989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:16">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -18516,7 +18600,7 @@
       <c r="O990" s="2"/>
       <c r="P990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:16">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -18534,7 +18618,7 @@
       <c r="O991" s="2"/>
       <c r="P991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:16">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -18552,7 +18636,7 @@
       <c r="O992" s="2"/>
       <c r="P992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:16">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -18570,7 +18654,7 @@
       <c r="O993" s="2"/>
       <c r="P993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:16">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -18588,7 +18672,7 @@
       <c r="O994" s="2"/>
       <c r="P994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:16">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -18606,7 +18690,7 @@
       <c r="O995" s="2"/>
       <c r="P995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:16">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -18624,7 +18708,7 @@
       <c r="O996" s="2"/>
       <c r="P996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:16">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -18642,7 +18726,7 @@
       <c r="O997" s="2"/>
       <c r="P997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:16">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -18660,7 +18744,7 @@
       <c r="O998" s="2"/>
       <c r="P998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:16">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -18678,7 +18762,7 @@
       <c r="O999" s="2"/>
       <c r="P999" s="2"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:16">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -18697,6 +18781,7 @@
       <c r="P1000" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
 </file>
--- a/TestData/Web_POS/Order/autoswitching_zwing_test_data.xlsx
+++ b/TestData/Web_POS/Order/autoswitching_zwing_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42" count="197">
   <si>
     <t>TC_Id</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>TC_1</t>
+    <t>TC_01</t>
   </si>
   <si>
     <t>307260624ut0</t>
@@ -73,7 +73,7 @@
     <t>Order</t>
   </si>
   <si>
-    <t>TC_2</t>
+    <t>TC_02</t>
   </si>
   <si>
     <t>307260624P3E</t>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>userone_p12</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
   </si>
 </sst>
 </file>
@@ -1069,16 +1078,36 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1087,16 +1116,36 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1105,16 +1154,36 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
